--- a/Chapitre_01_Correction/Applications/images/Classeur1.xlsx
+++ b/Chapitre_01_Correction/Applications/images/Classeur1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Enseignement\GitHub\Cy_03_PSI_ConceptionCommande\Chapitre_01_Correction\Applications\images\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230"/>
   </bookViews>
@@ -29,7 +24,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Feuil1!$B$3</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Feuil1!$B$4</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -43,7 +38,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,31 +48,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>f(x)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>EXO 01</t>
   </si>
   <si>
-    <t>GDB</t>
+    <t>ω</t>
+  </si>
+  <si>
+    <t>GDB(ω)</t>
+  </si>
+  <si>
+    <t>φ(ω) Mφ</t>
+  </si>
+  <si>
+    <t>φ(ω)-MG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,8 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -162,7 +167,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -214,7 +219,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -408,7 +413,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -416,22 +421,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>2.9475672722394406</v>
@@ -439,7 +447,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <f>ATAN(10*B2)+ATAN(0.1*B2)+ATAN(0.2*B2)-RADIANS(135)</f>
@@ -447,21 +455,37 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
+        <f>ATAN(10*C4)+ATAN(0.1*C4)+ATAN(0.2*C4)-RADIANS(180)</f>
+        <v>-3.1415926535897931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
         <f>-20*LOG10(SQRT(1+10*10*B2^2))-20*LOG10(SQRT(1+0.1*0.1*B2^2))-20*LOG10(SQRT(1+0.2*0.2*B2^2))</f>
         <v>-31.051464316392682</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
         <f>10^(31/20)</f>
         <v>35.481338923357555</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>1/(1+35.48)</f>
+        <v>2.7412280701754388E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Chapitre_01_Correction/Applications/images/Classeur1.xlsx
+++ b/Chapitre_01_Correction/Applications/images/Classeur1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Enseignement\GitHub\Cy_03_PSI_ConceptionCommande\Chapitre_01_Correction\Applications\images\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230"/>
   </bookViews>
@@ -10,7 +15,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Feuil1!$B$2</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Feuil1!$B$7</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
@@ -24,7 +29,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Feuil1!$B$4</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Feuil1!$B$8</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -38,7 +43,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>EXO 01</t>
   </si>
@@ -63,12 +68,21 @@
   </si>
   <si>
     <t>φ(ω)-MG</t>
+  </si>
+  <si>
+    <t>ω Mφ</t>
+  </si>
+  <si>
+    <t>ω MG</t>
+  </si>
+  <si>
+    <t>KP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,7 +427,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -421,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,44 +456,69 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.9475672722394406</v>
+        <f>B7</f>
+        <v>7.1763525994498751</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <f>ATAN(10*B2)+ATAN(0.1*B2)+ATAN(0.2*B2)-RADIANS(135)</f>
-        <v>1.2205673307619236E-6</v>
+        <v>35.479999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
+      <c r="A4" t="s">
+        <v>5</v>
       </c>
       <c r="B4">
-        <f>ATAN(10*C4)+ATAN(0.1*C4)+ATAN(0.2*C4)-RADIANS(180)</f>
-        <v>-3.1415926535897931</v>
+        <v>2.9475672722394406</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f>ATAN(10*B4)+ATAN(0.1*B4)+ATAN(0.2*B4)-RADIANS(135)</f>
+        <v>1.2205673307619236E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7.1763525994498751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <f>ATAN(10*B7)+ATAN(0.1*B7)+ATAN(0.2*B7)-RADIANS(180)</f>
+        <v>3.4023336858979292E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <f>-20*LOG10(SQRT(1+10*10*B2^2))-20*LOG10(SQRT(1+0.1*0.1*B2^2))-20*LOG10(SQRT(1+0.2*0.2*B2^2))</f>
-        <v>-31.051464316392682</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B9">
+        <f>-20*LOG10(SQRT(1+10*10*B2^2))-20*LOG10(SQRT(1+0.1*0.1*B2^2))-20*LOG10(SQRT(1+0.2*0.2*B2^2))+20*LOG10(B3)</f>
+        <v>-12.780590087009529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
         <f>10^(31/20)</f>
         <v>35.481338923357555</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12">
         <f>1/(1+35.48)</f>
         <v>2.7412280701754388E-2</v>
       </c>

--- a/Chapitre_01_Correction/Applications/images/Classeur1.xlsx
+++ b/Chapitre_01_Correction/Applications/images/Classeur1.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>EXO 01</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>KP</t>
+  </si>
+  <si>
+    <t>GDB(ω) - NC</t>
   </si>
 </sst>
 </file>
@@ -181,7 +184,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -233,7 +236,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,16 +514,35 @@
         <v>-12.780590087009529</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f>-20*LOG10(SQRT(1+10*10*B2^2))-20*LOG10(SQRT(1+0.1*0.1*B2^2))-20*LOG10(SQRT(1+0.2*0.2*B2^2))</f>
+        <v>-43.780262310203305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
         <f>10^(31/20)</f>
         <v>35.481338923357555</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>10^(38/20)</f>
+        <v>79.432823472428197</v>
+      </c>
+      <c r="B13">
         <f>1/(1+35.48)</f>
         <v>2.7412280701754388E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>1/80</f>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Chapitre_01_Correction/Applications/images/Classeur1.xlsx
+++ b/Chapitre_01_Correction/Applications/images/Classeur1.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>EXO 01</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>GDB(ω) - NC</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>φ(ω) - NC</t>
+  </si>
+  <si>
+    <t>Kp</t>
   </si>
 </sst>
 </file>
@@ -438,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,12 +458,15 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -462,24 +474,42 @@
         <f>B7</f>
         <v>7.1763525994498751</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3">
         <v>35.479999999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>35.479999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>2.9475672722394406</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -487,16 +517,29 @@
         <f>ATAN(10*B4)+ATAN(0.1*B4)+ATAN(0.2*B4)-RADIANS(135)</f>
         <v>1.2205673307619236E-6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f>ATAN(10*F4)+ATAN(0.1*F4)+ATAN(0.2*F4)-RADIANS(135)</f>
+        <v>1.0805792195724595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>7.1763525994498751</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>7.1763525994498751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -504,8 +547,15 @@
         <f>ATAN(10*B7)+ATAN(0.1*B7)+ATAN(0.2*B7)-RADIANS(180)</f>
         <v>3.4023336858979292E-7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <f>ATAN(10*F7)+ATAN(0.1*F7)+ATAN(0.2*F7)-RADIANS(180)</f>
+        <v>3.4023336858979292E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -513,8 +563,19 @@
         <f>-20*LOG10(SQRT(1+10*10*B2^2))-20*LOG10(SQRT(1+0.1*0.1*B2^2))-20*LOG10(SQRT(1+0.2*0.2*B2^2))+20*LOG10(B3)</f>
         <v>-12.780590087009529</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <f>-20*LOG10(SQRT(1+10*10*F2^2))-20*LOG10(SQRT(1+0.1*0.1*F2^2))-20*LOG10(SQRT(1+0.2*0.2*F2^2))+20*LOG10(F3)</f>
+        <v>-18.639084798032172</v>
+      </c>
+      <c r="G9">
+        <f>TAN(RADIANS(135))</f>
+        <v>-1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -523,13 +584,20 @@
         <v>-43.780262310203305</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>10^(31/20)</f>
         <v>35.481338923357555</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <f>-20*LOG10(SQRT(1+F2^2))-20*LOG10(SQRT(1+(1/8)*(1/8)*F2^2))</f>
+        <v>-23.878155068490841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>10^(38/20)</f>
         <v>79.432823472428197</v>
@@ -538,11 +606,29 @@
         <f>1/(1+35.48)</f>
         <v>2.7412280701754388E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <f>-ATAN(F2)-ATAN(F2*(1/8))</f>
+        <v>-2.3564908494887851</v>
+      </c>
+      <c r="G13">
+        <f>DEGREES(F13)</f>
+        <v>-135.01698013690549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <f>1/80</f>
         <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <f>10^(23.9/20)</f>
+        <v>15.667510701081486</v>
       </c>
     </row>
   </sheetData>

--- a/Chapitre_01_Correction/Applications/images/Classeur1.xlsx
+++ b/Chapitre_01_Correction/Applications/images/Classeur1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Enseignement\GitHub\Cy_03_PSI_ConceptionCommande\Chapitre_01_Correction\Applications\images\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230"/>
   </bookViews>
@@ -43,7 +38,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>EXO 01</t>
   </si>
@@ -89,12 +84,24 @@
   </si>
   <si>
     <t>Kp</t>
+  </si>
+  <si>
+    <t>Exo2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>KP Phase</t>
+  </si>
+  <si>
+    <t>KP Gain</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -193,7 +200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -245,7 +252,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -439,7 +446,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -447,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,6 +638,34 @@
         <v>15.667510701081486</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <f>10^(-25.34/20)</f>
+        <v>5.4075432294558093E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <f>10^(-30/20)</f>
+        <v>3.1622776601683784E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
